--- a/biology/Zoologie/Dasylabris_maura/Dasylabris_maura.xlsx
+++ b/biology/Zoologie/Dasylabris_maura/Dasylabris_maura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasylabris maura est une espèce d'insectes hyménoptères de la famille des Mutillidae. Comme d'autres espèces de sa famille, elle est communément appelée « fourmi de velours » en raison de son apparence intermédiaire entre les fourmis (par leur forme allongée) et les guêpes (par leur pilosité). C'est un parasite d'autres hyménoptères (des ammophiles et des sphex)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasylabris maura est une espèce d'insectes hyménoptères de la famille des Mutillidae. Comme d'autres espèces de sa famille, elle est communément appelée « fourmi de velours » en raison de son apparence intermédiaire entre les fourmis (par leur forme allongée) et les guêpes (par leur pilosité). C'est un parasite d'autres hyménoptères (des ammophiles et des sphex).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps long de 9 à 15 mm. Seuls les mâles sont ailés, l'extrémité des ailes est sombre, l'abdomen présente deux bandes grises. Les femelles aptères ont un thorax vu du dessus en forme de poire.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe, depuis le Portugal jusqu'à l'ouest de la Russie (absente des îles Britanniques et de la Scandinavie). 
 </t>
@@ -573,9 +589,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces selon BioLib                    (19 septembre 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces selon BioLib                    (19 septembre 2021) :
 Dasylabris maura carinulata (Dalla Torre, 1897)
 Dasylabris maura clausa (Lepeletier, 1845)
 Dasylabris maura maura (Linnaeus, 1758)
